--- a/xlsx/FR/transport_FR.xlsx
+++ b/xlsx/FR/transport_FR.xlsx
@@ -12,30 +12,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">Sample: non-weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample: weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q4</t>
+    <t xml:space="preserve">Shopping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leisure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Car or Motorbike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not Applicable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Public Transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walking or Cycling</t>
   </si>
 </sst>
 </file>
@@ -386,13 +389,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.227501397428731</v>
+        <v>0.812324328673721</v>
       </c>
       <c r="C2" t="n">
-        <v>0.204944555347326</v>
+        <v>0.710363061400609</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2034</v>
+        <v>0.454531588911393</v>
       </c>
     </row>
     <row r="3">
@@ -400,13 +403,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.277808831749581</v>
+        <v>0.0115794533239373</v>
       </c>
       <c r="C3" t="n">
-        <v>0.244554338774632</v>
+        <v>0.0658682652495439</v>
       </c>
       <c r="D3" t="n">
-        <v>0.239</v>
+        <v>0.324635521777369</v>
       </c>
     </row>
     <row r="4">
@@ -414,13 +417,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>0.279485746226942</v>
+        <v>0.00170993321101965</v>
       </c>
       <c r="C4" t="n">
-        <v>0.248694436345023</v>
+        <v>0.0240325427319812</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2439</v>
+        <v>0.00150322607807279</v>
       </c>
     </row>
     <row r="5">
@@ -428,13 +431,27 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>0.215204024594746</v>
+        <v>0.04288719684276</v>
       </c>
       <c r="C5" t="n">
-        <v>0.301806669533019</v>
+        <v>0.0821132348444334</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3137</v>
+        <v>0.142293450908337</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.131499087948563</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.117622895773433</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0770362123248278</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/FR/transport_FR.xlsx
+++ b/xlsx/FR/transport_FR.xlsx
@@ -20,10 +20,10 @@
     <t xml:space="preserve">Shopping</t>
   </si>
   <si>
+    <t xml:space="preserve">Work</t>
+  </si>
+  <si>
     <t xml:space="preserve">Leisure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Work</t>
   </si>
   <si>
     <t xml:space="preserve">Car or Motorbike</t>
@@ -389,13 +389,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.812324328673721</v>
+        <v>0.816590419445027</v>
       </c>
       <c r="C2" t="n">
-        <v>0.710363061400609</v>
+        <v>0.439455307203516</v>
       </c>
       <c r="D2" t="n">
-        <v>0.454531588911393</v>
+        <v>0.688169229493458</v>
       </c>
     </row>
     <row r="3">
@@ -403,13 +403,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0115794533239373</v>
+        <v>0.0167460725494612</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0658682652495439</v>
+        <v>0.343283426550893</v>
       </c>
       <c r="D3" t="n">
-        <v>0.324635521777369</v>
+        <v>0.0724579991918154</v>
       </c>
     </row>
     <row r="4">
@@ -417,13 +417,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>0.00170993321101965</v>
+        <v>0.00576779665432628</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0240325427319812</v>
+        <v>0.00376386086157367</v>
       </c>
       <c r="D4" t="n">
-        <v>0.00150322607807279</v>
+        <v>0.016565817117289</v>
       </c>
     </row>
     <row r="5">
@@ -431,13 +431,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>0.04288719684276</v>
+        <v>0.0490143290184697</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0821132348444334</v>
+        <v>0.131544002810697</v>
       </c>
       <c r="D5" t="n">
-        <v>0.142293450908337</v>
+        <v>0.104870758092052</v>
       </c>
     </row>
     <row r="6">
@@ -445,13 +445,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>0.131499087948563</v>
+        <v>0.111881382332715</v>
       </c>
       <c r="C6" t="n">
-        <v>0.117622895773433</v>
+        <v>0.08195340257332</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0770362123248278</v>
+        <v>0.117936196105386</v>
       </c>
     </row>
   </sheetData>
